--- a/crowd/data/Comments of AtlanticStorm.xlsx
+++ b/crowd/data/Comments of AtlanticStorm.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanshen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yali/Studio/CrowdSPIRE/crowd/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AtlanticStorm" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="315">
   <si>
     <t>id</t>
   </si>
@@ -1141,9 +1141,6 @@
     </r>
   </si>
   <si>
-    <t>穆斯林</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">This report concerns results of an FBI interview of the two men apprehended in </t>
     </r>
@@ -1332,9 +1329,6 @@
     <t>伦敦， 阿富汗， 埃及， 底特律</t>
   </si>
   <si>
-    <t>酒店</t>
-  </si>
-  <si>
     <t>古巴， 酒店</t>
   </si>
   <si>
@@ -1397,9 +1391,6 @@
     <t xml:space="preserve">Nassau, freeport, karachi, </t>
   </si>
   <si>
-    <t>印度</t>
-  </si>
-  <si>
     <t>nassau</t>
   </si>
   <si>
@@ -1443,12 +1434,6 @@
   </si>
   <si>
     <t xml:space="preserve">California </t>
-  </si>
-  <si>
-    <t>东南亚</t>
-  </si>
-  <si>
-    <t>密苏里</t>
   </si>
   <si>
     <t xml:space="preserve">miami， jihad </t>
@@ -1557,9 +1542,6 @@
     <t>members of Al Qaeda.</t>
   </si>
   <si>
-    <t>开罗，伦敦，酒店， 巴黎</t>
-  </si>
-  <si>
     <t>great things</t>
   </si>
   <si>
@@ -1678,6 +1660,30 @@
   </si>
   <si>
     <t>Mexico， Columbia</t>
+  </si>
+  <si>
+    <t>Hotel, Carel, London, Paris 开罗，伦敦，酒店， 巴黎</t>
+  </si>
+  <si>
+    <t>Muslim</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Pakiston</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Europe, 欧洲包裹，表</t>
+  </si>
+  <si>
+    <t>Southeast Asia</t>
+  </si>
+  <si>
+    <t>Missouri</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
@@ -2144,7 +2150,7 @@
         <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2188,7 +2194,7 @@
         <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2210,7 +2216,7 @@
         <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2221,7 +2227,7 @@
         <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2229,10 +2235,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2240,10 +2246,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
         <v>222</v>
-      </c>
-      <c r="C11" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="96" x14ac:dyDescent="0.2">
@@ -2254,7 +2260,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2265,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2276,7 +2282,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2284,10 +2290,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="160" x14ac:dyDescent="0.2">
@@ -2295,10 +2301,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2309,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -2320,7 +2326,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2331,7 +2337,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -2339,10 +2345,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2353,7 +2359,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -2364,7 +2370,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2386,7 +2392,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2397,7 +2403,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2408,7 +2414,7 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2419,7 +2425,7 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2430,7 +2436,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2441,7 +2447,7 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2468,7 +2474,7 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="144" x14ac:dyDescent="0.2">
@@ -2479,7 +2485,7 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2498,7 +2504,7 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2517,7 +2523,7 @@
         <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -2528,7 +2534,7 @@
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2539,7 +2545,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2558,7 +2564,7 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2593,7 +2599,7 @@
         <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="128" x14ac:dyDescent="0.2">
@@ -2601,7 +2607,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="128" x14ac:dyDescent="0.2">
@@ -2617,10 +2623,10 @@
         <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="128" x14ac:dyDescent="0.2">
@@ -2631,7 +2637,7 @@
         <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -2650,7 +2656,7 @@
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2661,7 +2667,7 @@
         <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -2680,7 +2686,7 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -2691,7 +2697,7 @@
         <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2710,7 +2716,7 @@
         <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="128" x14ac:dyDescent="0.2">
@@ -2761,7 +2767,7 @@
         <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -2772,7 +2778,7 @@
         <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2879,7 +2885,7 @@
         <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -2903,7 +2909,7 @@
         <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2943,10 +2949,10 @@
         <v>152</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C85" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2957,7 +2963,7 @@
         <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="112" x14ac:dyDescent="0.2">
@@ -3000,7 +3006,7 @@
         <v>164</v>
       </c>
       <c r="C91" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3123,7 +3129,7 @@
         <v>194</v>
       </c>
       <c r="C106" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -3183,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3192,49 +3198,49 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E1" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="G1" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="H1" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="I1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" t="s">
         <v>245</v>
       </c>
-      <c r="J1" t="s">
-        <v>247</v>
-      </c>
       <c r="K1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3582,7 +3588,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
@@ -3626,37 +3632,37 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" t="s">
+        <v>306</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" t="s">
         <v>259</v>
       </c>
-      <c r="C28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D28" t="s">
-        <v>252</v>
-      </c>
-      <c r="E28" t="s">
-        <v>254</v>
-      </c>
-      <c r="F28" t="s">
-        <v>255</v>
-      </c>
-      <c r="G28" t="s">
-        <v>295</v>
-      </c>
-      <c r="H28" t="s">
-        <v>312</v>
-      </c>
-      <c r="I28" t="s">
-        <v>261</v>
-      </c>
-      <c r="J28" t="s">
-        <v>262</v>
-      </c>
       <c r="K28" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -3767,7 +3773,7 @@
         <v>146</v>
       </c>
       <c r="N31" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -4070,37 +4076,37 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" t="s">
         <v>266</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>313</v>
+      </c>
+      <c r="F51" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" t="s">
         <v>269</v>
       </c>
-      <c r="E51" t="s">
-        <v>270</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>271</v>
       </c>
-      <c r="G51" t="s">
-        <v>274</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
+        <v>275</v>
+      </c>
+      <c r="J51" t="s">
         <v>276</v>
       </c>
-      <c r="I51" t="s">
-        <v>280</v>
-      </c>
-      <c r="J51" t="s">
-        <v>281</v>
-      </c>
       <c r="K51" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -4274,31 +4280,31 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B62" t="s">
+        <v>285</v>
+      </c>
+      <c r="C62" t="s">
         <v>287</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
+        <v>290</v>
+      </c>
+      <c r="E62" t="s">
         <v>291</v>
       </c>
-      <c r="C62" t="s">
+      <c r="F62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G62" t="s">
         <v>293</v>
       </c>
-      <c r="D62" t="s">
-        <v>296</v>
-      </c>
-      <c r="E62" t="s">
-        <v>297</v>
-      </c>
-      <c r="F62" t="s">
-        <v>298</v>
-      </c>
-      <c r="G62" t="s">
-        <v>299</v>
-      </c>
       <c r="H62" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I62" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>107</v>

--- a/crowd/data/Comments of AtlanticStorm.xlsx
+++ b/crowd/data/Comments of AtlanticStorm.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="316">
   <si>
     <t>id</t>
   </si>
@@ -1684,6 +1684,9 @@
   </si>
   <si>
     <t>Missouri</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -3189,13 +3192,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D39" sqref="D28:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="5" max="5" width="51.6640625" customWidth="1"/>
@@ -4353,7 +4356,7 @@
         <v>121</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>9</v>
+        <v>315</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>139</v>
